--- a/data/lelec.xlsx
+++ b/data/lelec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\Edf\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C31880\Documents\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9DB986-8CC3-4B00-8185-1789507290D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC567F-D1EF-4D09-9926-E7E3CB907BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="32">
   <si>
     <t>Année</t>
   </si>
@@ -673,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -713,7 +713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -819,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,1630 +969,1998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A3:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>66.614000000000004</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>6.01</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>66.614000000000004</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>4.9400000000000004</v>
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>13.66</v>
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>6.01</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>7.673</v>
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>114.25</v>
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>13.66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>7.673</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>114.25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="F9">
+      <c r="H11">
         <v>1.82</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>76.88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>8.56</v>
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>76.88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>0.81</v>
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>8.56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>5.95</v>
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0.81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>45.15</v>
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>5.95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>45.15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="H19">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>74.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>0.4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>7.2</v>
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>74.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
       <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>0.3</v>
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>7.7</v>
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>7.2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
       <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>9.9</v>
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
       <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24">
-        <v>40.54</v>
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>7.7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
       <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>9.9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>40.54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="F25">
+      <c r="H27">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>87.7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
       <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>5.6</v>
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>87.7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29">
-        <v>0.6</v>
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>3.5</v>
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>5.6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>0.6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
       <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32">
-        <v>26.78</v>
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
       <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33">
-        <v>12.32</v>
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
       <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>26.78</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>12.32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="F34">
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>86.3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
       <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37">
-        <v>6.6</v>
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>86.3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>6.6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
       <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>2.7</v>
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>1.9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>1.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42">
-        <v>31.91</v>
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>2.7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
       <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43">
-        <v>11.7</v>
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>1.9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
       <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>31.91</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <v>11.7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="F44">
+      <c r="H46">
         <v>0.99</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>85.9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46">
-        <v>1.3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
       <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <v>5.3</v>
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>85.9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
       <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48">
-        <v>1.9</v>
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>1.3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
       <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49">
-        <v>3.7</v>
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>5.3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>1.9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
       <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51">
-        <v>1.9</v>
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52">
-        <v>40.659999999999997</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>3.7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
       <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53">
-        <v>12.24</v>
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <v>1.9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
       <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
         <v>21</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <v>12.24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
         <v>27</v>
       </c>
-      <c r="F54">
+      <c r="H56">
         <v>0.97</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>89.13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56">
-        <v>1.32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
       <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57">
-        <v>4.51</v>
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>89.13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58">
-        <v>1.44</v>
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>1.32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
       <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59">
-        <v>2.58</v>
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H59">
+        <v>4.51</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
       <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60">
-        <v>1.02</v>
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>1.44</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
       <c r="D61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61">
-        <v>32.18</v>
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>2.58</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
       <c r="D62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62">
-        <v>12.96</v>
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H62">
+        <v>1.02</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>32.18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
       <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
         <v>21</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64">
+        <v>12.96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
         <v>27</v>
       </c>
-      <c r="F64">
+      <c r="H66">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I66" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72">
-        <v>89.7</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
       <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74">
-        <v>6.3</v>
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>89.7</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
       <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
       <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76">
-        <v>0.8</v>
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H76">
+        <v>6.3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
       <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77">
-        <v>0.6</v>
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>1.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>31</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
       <c r="D78" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78">
-        <v>25.02</v>
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H78">
+        <v>0.8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
       <c r="D79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79">
-        <v>11.1</v>
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H79">
+        <v>0.6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
       <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80">
+        <v>25.02</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
         <v>21</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81">
+        <v>11.1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
         <v>27</v>
       </c>
-      <c r="F80">
+      <c r="H82">
         <v>1</v>
       </c>
-      <c r="G80" t="s">
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83">
+        <v>66.614000000000004</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85">
+        <v>6.01</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87">
+        <v>13.66</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>7.673</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90">
+        <v>114.25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91">
+        <v>1.82</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>76.88</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93">
+        <v>0.8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94">
+        <v>8.56</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>0.81</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97">
+        <v>5.95</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98">
+        <v>45.15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I99" t="s">
         <v>22</v>
       </c>
     </row>
